--- a/taxonomy_info/missingSynthTaxaExplanations.xlsx
+++ b/taxonomy_info/missingSynthTaxaExplanations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="287">
   <si>
     <t xml:space="preserve">Missing taxon</t>
   </si>
@@ -35,28 +35,22 @@
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">Actinodura nipalensis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double map to OTT</t>
+    <t xml:space="preserve">Amazilia saucerottei </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clements taxa mapped to parent and child</t>
   </si>
   <si>
     <t xml:space="preserve">Actinodura nipalensis, Actinodura waldeni; are mapped to same taxon Actinodura waldeni, ott695502</t>
   </si>
   <si>
-    <t xml:space="preserve">Aegotheles albertisi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-monphyletic</t>
+    <t xml:space="preserve">Asthenes vilcabambae</t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/opentree/argus/ottol@540030/Aegotheles-albertisi</t>
   </si>
   <si>
-    <t xml:space="preserve">Aerodramus amelis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxonomically problematic (IRMING only)</t>
+    <t xml:space="preserve">Bambusicola thoracicus</t>
   </si>
   <si>
     <r>
@@ -78,10 +72,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Alectroenas payandeei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New amendment</t>
+    <t xml:space="preserve">Chasiempis sandwichensis </t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Alectroenas payandeei",
@@ -90,7 +81,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Alopecoenas ferrugineus </t>
+    <t xml:space="preserve">Cinclosoma castaneothorax</t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Alopecoenas ferrugineus", 
@@ -99,7 +90,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Alopecoenas norfolkensis</t>
+    <t xml:space="preserve">Dicrurus adsimilis</t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Alopecoenas norfolkensis", 
@@ -108,7 +99,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Alopochen mauritiana </t>
+    <t xml:space="preserve">Dicrurus ludwigii</t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Alopochen mauritiana", 
@@ -117,10 +108,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Amazilia saucerottei </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clements taxa mapped to parent and child</t>
+    <t xml:space="preserve">Gallinula nesiotis</t>
   </si>
   <si>
     <r>
@@ -150,31 +138,28 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Amazona auropalliata</t>
+    <t xml:space="preserve">Geospiza difficilis</t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/opentree/argus/ottol@1118/Amazona-auropalliata</t>
   </si>
   <si>
-    <t xml:space="preserve">Amazona ochrocephala</t>
+    <t xml:space="preserve">Haematopus unicolor </t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/opentree/argus/ottol@165617/Amazona-ochrocephala</t>
   </si>
   <si>
-    <t xml:space="preserve">Amazona oratrix </t>
+    <t xml:space="preserve">Hylopezus macularius</t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/opentree/argus/ottol@1119/Amazona-oratrix</t>
   </si>
   <si>
-    <t xml:space="preserve">Aphanapteryx bonasia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extinct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asthenes vilcabambae</t>
+    <t xml:space="preserve">Liocichla phoenicea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merops nubicus</t>
   </si>
   <si>
     <r>
@@ -213,22 +198,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Aulacorhynchus whitelianus</t>
+    <t xml:space="preserve">Motacilla capensis </t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=7658001 and genus is non mono)</t>
   </si>
   <si>
-    <t xml:space="preserve">Automolus exsertus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxonomically problematic (major rank conflict)</t>
+    <t xml:space="preserve">Otus senegalensis </t>
   </si>
   <si>
     <t xml:space="preserve">Species appears directly in Aves</t>
   </si>
   <si>
-    <t xml:space="preserve">Bambusicola thoracicus</t>
+    <t xml:space="preserve">Phaethornis longirostris </t>
   </si>
   <si>
     <r>
@@ -267,25 +249,25 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Batis occulta</t>
+    <t xml:space="preserve">Pterodroma macroptera</t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=3597941</t>
   </si>
   <si>
-    <t xml:space="preserve">Batrachostomus affinis </t>
+    <t xml:space="preserve">Rostratula benghalensis</t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5560141</t>
   </si>
   <si>
-    <t xml:space="preserve">Batrachostomus mixtus </t>
+    <t xml:space="preserve">Zimmerius improbus</t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5560140</t>
   </si>
   <si>
-    <t xml:space="preserve">Bermuteo avivorus</t>
+    <t xml:space="preserve">Zimmerius vilissimus </t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Bermuteo avivorus", 
@@ -294,16 +276,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Bucco noanamae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Match on synonym?</t>
+    <t xml:space="preserve">Actinodura nipalensis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double map to OTT</t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=3600719</t>
   </si>
   <si>
-    <t xml:space="preserve">Calliope tschebaiewi</t>
+    <t xml:space="preserve">Ducula bicolor </t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Calliope tschebaiewi", 
@@ -312,7 +294,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Campylopterus calcirupicola</t>
+    <t xml:space="preserve">Ducula subflavescens </t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Campylopterus calcirupicola", 
@@ -320,7 +302,7 @@
 "parent": 294127, </t>
   </si>
   <si>
-    <t xml:space="preserve">Celeus ochraceus </t>
+    <t xml:space="preserve">Ficedula erithacus </t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Celeus ochraceus", 
@@ -328,7 +310,7 @@
 "parent": 724182, </t>
   </si>
   <si>
-    <t xml:space="preserve">Cercomacroides fuscicauda </t>
+    <t xml:space="preserve">Hemignathus wilsoni</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Cercomacroides fuscicauda", 
@@ -336,7 +318,7 @@
 "parent": 743734, </t>
   </si>
   <si>
-    <t xml:space="preserve">Chasiempis sandwichensis </t>
+    <t xml:space="preserve">Heteromyias albispecularis </t>
   </si>
   <si>
     <r>
@@ -375,7 +357,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Cinclosoma castaneothorax</t>
+    <t xml:space="preserve">Microcarbo africanus</t>
   </si>
   <si>
     <r>
@@ -414,7 +396,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Cinnyris gertrudis </t>
+    <t xml:space="preserve">Mionectes olivaceus</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Cinnyris gertrudis", 
@@ -422,13 +404,13 @@
 "parent": 520444, </t>
   </si>
   <si>
-    <t xml:space="preserve">Clibanornis rubiginosus </t>
+    <t xml:space="preserve">Ornithion brunneicapillus </t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/opentree/argus/ottol@713365</t>
   </si>
   <si>
-    <t xml:space="preserve">Colaptes oceanicus </t>
+    <t xml:space="preserve">Ploceus capensis</t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Colaptes oceanicus", 
@@ -436,7 +418,7 @@
 "parent": 1020136, </t>
   </si>
   <si>
-    <t xml:space="preserve">Columba thiriouxi</t>
+    <t xml:space="preserve">Poecilotriccus calopterus</t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Columba thiriouxi", 
@@ -444,7 +426,7 @@
 "parent": 938415, </t>
   </si>
   <si>
-    <t xml:space="preserve">Cyornis pelingensis </t>
+    <t xml:space="preserve">Poospiza whitii</t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Cyornis pelingensis", 
@@ -452,7 +434,7 @@
 "parent": 288691, </t>
   </si>
   <si>
-    <t xml:space="preserve">Cyornis sumatrensis</t>
+    <t xml:space="preserve">Pseudastur albicollis</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Cyornis sumatrensis", 
@@ -460,7 +442,7 @@
 "parent": 288691, </t>
   </si>
   <si>
-    <t xml:space="preserve">Dicrurus adsimilis</t>
+    <t xml:space="preserve">Ptilinopus cinctus</t>
   </si>
   <si>
     <r>
@@ -499,7 +481,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Dicrurus atactus</t>
+    <t xml:space="preserve">Sicalis olivascens </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Dicrurus atactus", 
@@ -507,7 +489,7 @@
 "parent": 72474, </t>
   </si>
   <si>
-    <t xml:space="preserve">Dicrurus ludwigii</t>
+    <t xml:space="preserve">Sphecotheres viridis </t>
   </si>
   <si>
     <r>
@@ -546,7 +528,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Dicrurus occidentalis </t>
+    <t xml:space="preserve">Aphanapteryx bonasia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extinct</t>
   </si>
   <si>
     <t xml:space="preserve">“original_label": "Dicrurus occidentalis", 
@@ -554,7 +539,7 @@
 "parent": 72474, </t>
   </si>
   <si>
-    <t xml:space="preserve">Dinopium psarodes</t>
+    <t xml:space="preserve">Erythromachus leguati </t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Dinopium psarodes", 
@@ -563,16 +548,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Ducula bicolor </t>
+    <t xml:space="preserve">Bucco noanamae</t>
   </si>
   <si>
     <t xml:space="preserve">Ducula bicolor, Ducula subflavescens, Ducula spilorrhoa; are mapped to same taxon Ducula bicolor, ott449659</t>
   </si>
   <si>
-    <t xml:space="preserve">Ducula subflavescens </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eclectus infectus</t>
+    <t xml:space="preserve">Alectroenas payandeei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alopecoenas ferrugineus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New amendment</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Eclectus infectus", 
@@ -580,7 +568,7 @@
 "parent": 375779, </t>
   </si>
   <si>
-    <t xml:space="preserve">Emberiza calandra </t>
+    <t xml:space="preserve">Alopecoenas norfolkensis</t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Emberiza calandra", 
@@ -588,16 +576,16 @@
 "parent": 711854, </t>
   </si>
   <si>
-    <t xml:space="preserve">Emberiza rustica </t>
+    <t xml:space="preserve">Alopochen mauritiana </t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=7068450</t>
   </si>
   <si>
-    <t xml:space="preserve">Erythromachus leguati </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erythropitta dohertyi </t>
+    <t xml:space="preserve">Bermuteo avivorus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calliope tschebaiewi</t>
   </si>
   <si>
     <r>
@@ -619,19 +607,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Eudynamys melanorhynchus</t>
+    <t xml:space="preserve">Campylopterus calcirupicola</t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=3596323</t>
   </si>
   <si>
-    <t xml:space="preserve">Ficedula erithacus </t>
+    <t xml:space="preserve">Celeus ochraceus </t>
   </si>
   <si>
     <t xml:space="preserve">Ficedula erithacus, Ficedula hodgsoni; are mapped to same taxon Ficedula hodgsoni, ott7660859</t>
   </si>
   <si>
-    <t xml:space="preserve">Gallinula nesiotis</t>
+    <t xml:space="preserve">Cercomacroides fuscicauda </t>
   </si>
   <si>
     <r>
@@ -661,7 +649,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Gecinulus viridis</t>
+    <t xml:space="preserve">Cinnyris gertrudis </t>
   </si>
   <si>
     <r>
@@ -691,7 +679,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Geospiza difficilis</t>
+    <t xml:space="preserve">Colaptes oceanicus </t>
   </si>
   <si>
     <r>
@@ -730,13 +718,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Glaucidium castaneum </t>
+    <t xml:space="preserve">Columba thiriouxi</t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5560040</t>
   </si>
   <si>
-    <t xml:space="preserve">Haematopus unicolor </t>
+    <t xml:space="preserve">Cyornis pelingensis </t>
   </si>
   <si>
     <r>
@@ -775,19 +763,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Hemignathus wilsoni</t>
+    <t xml:space="preserve">Cyornis sumatrensis</t>
   </si>
   <si>
     <t xml:space="preserve">Hemignathus wilsoni, Chlorodrepanis virens wilsoni; are mapped to same taxon Hemignathus wilsoni, ott324561</t>
   </si>
   <si>
-    <t xml:space="preserve">Heteromyias albispecularis </t>
+    <t xml:space="preserve">Dicrurus atactus</t>
   </si>
   <si>
     <t xml:space="preserve">Heteromyias albispecularis, Heteromyias cinereifrons; are mapped to same taxon Poecilodryas albispecularis, ott664</t>
   </si>
   <si>
-    <t xml:space="preserve">Hierococcyx bocki </t>
+    <t xml:space="preserve">Dicrurus occidentalis </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Hierococcyx bocki", 
@@ -795,7 +783,7 @@
 "parent": 589929, </t>
   </si>
   <si>
-    <t xml:space="preserve">Hylopezus macularius</t>
+    <t xml:space="preserve">Dinopium psarodes</t>
   </si>
   <si>
     <r>
@@ -834,13 +822,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Ianthocincla pectoralis</t>
+    <t xml:space="preserve">Eclectus infectus</t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5560054</t>
   </si>
   <si>
-    <t xml:space="preserve">Ianthocincla woodi </t>
+    <t xml:space="preserve">Emberiza calandra </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Ianthocincla woodi", 
@@ -848,7 +836,7 @@
 "parent": 294063, </t>
   </si>
   <si>
-    <t xml:space="preserve">Leistes bellicosus</t>
+    <t xml:space="preserve">Hierococcyx bocki </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Leistes bellicosus", 
@@ -856,7 +844,7 @@
 "parent": 3597461, </t>
   </si>
   <si>
-    <t xml:space="preserve">Liocichla phoenicea</t>
+    <t xml:space="preserve">Ianthocincla woodi </t>
   </si>
   <si>
     <r>
@@ -895,7 +883,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Lophopsittacus mauritianus </t>
+    <t xml:space="preserve">Leistes bellicosus</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Lophopsittacus mauritianus", 
@@ -903,7 +891,7 @@
 "parent": 4131208, </t>
   </si>
   <si>
-    <t xml:space="preserve">Mareca marecula </t>
+    <t xml:space="preserve">Lophopsittacus mauritianus </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Mareca marecula", 
@@ -911,7 +899,7 @@
 "parent": 3595961, </t>
   </si>
   <si>
-    <t xml:space="preserve">Megapomatorhinus erythrocnemis</t>
+    <t xml:space="preserve">Mareca marecula </t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Megapomatorhinus erythrocnemis", 
@@ -920,7 +908,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Megascops gilesi </t>
+    <t xml:space="preserve">Megapomatorhinus erythrocnemis</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Megascops gilesi", 
@@ -928,7 +916,7 @@
 "parent": 181710,</t>
   </si>
   <si>
-    <t xml:space="preserve">Megascops roraimae </t>
+    <t xml:space="preserve">Megascops gilesi </t>
   </si>
   <si>
     <r>
@@ -967,7 +955,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Merops nubicus</t>
+    <t xml:space="preserve">Myrmothera subcanescens</t>
   </si>
   <si>
     <r>
@@ -1006,25 +994,25 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Microcarbo africanus</t>
+    <t xml:space="preserve">Myzomela irianawidodoae</t>
   </si>
   <si>
     <t xml:space="preserve">Microcarbo africanus, Microcarbo coronatus; are mapped to same taxon Phalacrocorax africanus, ott3600675</t>
   </si>
   <si>
-    <t xml:space="preserve">Mionectes olivaceus</t>
+    <t xml:space="preserve">Necopsittacus rodricanus</t>
   </si>
   <si>
     <t xml:space="preserve">Mionectes olivaceus, Oncostoma olivaceum; are mapped to same taxon Mionectes olivaceus, ott581548</t>
   </si>
   <si>
-    <t xml:space="preserve">Monarcha godeffroyi </t>
+    <t xml:space="preserve">Nesoenas cicur </t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=4947755</t>
   </si>
   <si>
-    <t xml:space="preserve">Motacilla capensis </t>
+    <t xml:space="preserve">Nesoenas duboisi </t>
   </si>
   <si>
     <r>
@@ -1063,13 +1051,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Myadestes woahensis</t>
+    <t xml:space="preserve">Nesoenas rodericanus</t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=3598824</t>
   </si>
   <si>
-    <t xml:space="preserve">Myrmothera subcanescens</t>
+    <t xml:space="preserve">Nyctanassa carcinocatactes </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Myrmothera subcanescens", 
@@ -1077,13 +1065,13 @@
 "parent": 736629, </t>
   </si>
   <si>
-    <t xml:space="preserve">Myzomela dammermani</t>
+    <t xml:space="preserve">Nycticorax duboisi</t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5560085</t>
   </si>
   <si>
-    <t xml:space="preserve">Myzomela irianawidodoae</t>
+    <t xml:space="preserve">Nycticorax mauritianus </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Myzomela irianawidodoae", 
@@ -1091,7 +1079,7 @@
 "parent": 598352, </t>
   </si>
   <si>
-    <t xml:space="preserve">Necopsittacus rodricanus</t>
+    <t xml:space="preserve">Nycticorax megacephalus</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Necopsittacus rodricanus", 
@@ -1099,14 +1087,14 @@
 "parent": 4131195, </t>
   </si>
   <si>
-    <t xml:space="preserve">Nesoenas cicur </t>
+    <t xml:space="preserve">Ortalis araucuan</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Nesoenas cicur", 
 "ott_id": 6520314, </t>
   </si>
   <si>
-    <t xml:space="preserve">Nesoenas duboisi </t>
+    <t xml:space="preserve">Ortalis columbiana </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Nesoenas duboisi", 
@@ -1114,7 +1102,7 @@
 "parent": 981607, </t>
   </si>
   <si>
-    <t xml:space="preserve">Nesoenas rodericanus</t>
+    <t xml:space="preserve">Ortalis squamata </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Nesoenas rodericanus", 
@@ -1122,14 +1110,14 @@
 "parent": 981607, </t>
   </si>
   <si>
-    <t xml:space="preserve">Nyctanassa carcinocatactes </t>
+    <t xml:space="preserve">Otus siaoensis </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Nyctanassa carcinocatactes", 
 "ott_id": 6520302, </t>
   </si>
   <si>
-    <t xml:space="preserve">Nycticorax duboisi</t>
+    <t xml:space="preserve">Otus sulaensis</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Nycticorax duboisi", 
@@ -1137,7 +1125,7 @@
 "parent": 313128, </t>
   </si>
   <si>
-    <t xml:space="preserve">Nycticorax mauritianus </t>
+    <t xml:space="preserve">Passer zarudnyi </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Nycticorax mauritianus", 
@@ -1145,7 +1133,7 @@
 "parent": 313128, </t>
   </si>
   <si>
-    <t xml:space="preserve">Nycticorax megacephalus</t>
+    <t xml:space="preserve">Phylloscopus intensior</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Nycticorax megacephalus", 
@@ -1153,19 +1141,19 @@
 "parent": 313128, </t>
   </si>
   <si>
-    <t xml:space="preserve">Oenanthe lugubris</t>
+    <t xml:space="preserve">Phylloscopus rotiensis </t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/opentree/argus/ottol@410725/Oenanthe-lugubris</t>
   </si>
   <si>
-    <t xml:space="preserve">Ornithion brunneicapillus </t>
+    <t xml:space="preserve">Pica asirensis </t>
   </si>
   <si>
     <t xml:space="preserve">Ornithion brunneicapillus, Contopus latirostris brunneicapillus; are mapped to same taxon Ornithion brunneicapillus, ott187660</t>
   </si>
   <si>
-    <t xml:space="preserve">Ortalis araucuan</t>
+    <t xml:space="preserve">Pica bottanensis</t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Ortalis araucuan", 
@@ -1174,7 +1162,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Ortalis columbiana </t>
+    <t xml:space="preserve">Psilopogon auricularis</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Ortalis columbiana", 
@@ -1182,7 +1170,7 @@
 "parent": 109892, </t>
   </si>
   <si>
-    <t xml:space="preserve">Ortalis squamata </t>
+    <t xml:space="preserve">Psittacara labati</t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Ortalis squamata", 
@@ -1191,13 +1179,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Ortalis superciliaris</t>
+    <t xml:space="preserve">Psittacara maugei</t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=4947472</t>
   </si>
   <si>
-    <t xml:space="preserve">Otus senegalensis </t>
+    <t xml:space="preserve">Pycnonotus snouckaerti </t>
   </si>
   <si>
     <r>
@@ -1236,14 +1224,14 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Otus siaoensis </t>
+    <t xml:space="preserve">Rhipidura sulaensis</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Otus siaoensis", 
 "ott_id": 6520300, </t>
   </si>
   <si>
-    <t xml:space="preserve">Otus sulaensis</t>
+    <t xml:space="preserve">Schiffornis olivacea</t>
   </si>
   <si>
     <t xml:space="preserve">"name_derivation": "No change to original label", 
@@ -1252,7 +1240,7 @@
 "parent": 1086553, </t>
   </si>
   <si>
-    <t xml:space="preserve">Passer zarudnyi </t>
+    <t xml:space="preserve">Setopagis heterura</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Passer zarudnyi", 
@@ -1260,7 +1248,7 @@
 "parent": 515158, </t>
   </si>
   <si>
-    <t xml:space="preserve">Phaethornis longirostris </t>
+    <t xml:space="preserve">Systellura decussata </t>
   </si>
   <si>
     <r>
@@ -1299,7 +1287,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Phylloscopus intensior</t>
+    <t xml:space="preserve">Treron axillaris </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Phylloscopus intensior", 
@@ -1307,7 +1295,7 @@
 "parent": 96289, </t>
   </si>
   <si>
-    <t xml:space="preserve">Phylloscopus rotiensis </t>
+    <t xml:space="preserve">Treron griveaudi</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Phylloscopus rotiensis", 
@@ -1315,7 +1303,7 @@
 "parent": 96289, </t>
   </si>
   <si>
-    <t xml:space="preserve">Pica asirensis </t>
+    <t xml:space="preserve">Tyto deroepstorffi</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Pica asirensis", 
@@ -1323,7 +1311,7 @@
 "parent": 776480, </t>
   </si>
   <si>
-    <t xml:space="preserve">Pica bottanensis</t>
+    <t xml:space="preserve">Urochroa leucura</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Pica bottanensis", 
@@ -1331,34 +1319,37 @@
 "parent": 776480, </t>
   </si>
   <si>
-    <t xml:space="preserve">Ploceus capensis</t>
+    <t xml:space="preserve">Zosterops eurycricotus</t>
   </si>
   <si>
     <t xml:space="preserve">Ploceus capensis, Euplectes capensis phoenicomerus, Euplectes capensis xanthomelas; are mapped to same taxon Ploceus capensis, ott606515
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Poecilotriccus calopterus</t>
+    <t xml:space="preserve">Aegotheles albertisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-monphyletic</t>
   </si>
   <si>
     <t xml:space="preserve">Poecilotriccus calopterus, Mecocerculus calopterus; are mapped to same taxon Mecocerculus calopterus, ott1008948
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Poospiza whitii</t>
+    <t xml:space="preserve">Amazona auropalliata</t>
   </si>
   <si>
     <t xml:space="preserve">Poospiza whitii, Poospiza nigrorufa; are mapped to same taxon Poospiza whitii, ott553173
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Pseudastur albicollis</t>
+    <t xml:space="preserve">Amazona ochrocephala</t>
   </si>
   <si>
     <t xml:space="preserve">Pseudastur albicollis, Pseudastur albicollis ghiesbreghti, Pseudastur albicollis costaricensis, Pseudastur albicollis williaminae, Pseudastur albicollis albicollis; are mapped to same taxon Leucopternis albicollis, ott624768</t>
   </si>
   <si>
-    <t xml:space="preserve">Psilopogon auricularis</t>
+    <t xml:space="preserve">Amazona oratrix </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Psilopogon auricularis", 
@@ -1366,7 +1357,7 @@
 "parent": 291642, </t>
   </si>
   <si>
-    <t xml:space="preserve">Psittacara labati</t>
+    <t xml:space="preserve">Clibanornis rubiginosus </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Psittacara labati", 
@@ -1374,7 +1365,7 @@
 "parent": 4131198, </t>
   </si>
   <si>
-    <t xml:space="preserve">Psittacara maugei</t>
+    <t xml:space="preserve">Oenanthe lugubris</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Psittacara maugei", 
@@ -1382,7 +1373,7 @@
 "parent": 4131198, </t>
   </si>
   <si>
-    <t xml:space="preserve">Pterodroma macroptera</t>
+    <t xml:space="preserve">Spatula cyanoptera </t>
   </si>
   <si>
     <r>
@@ -1421,13 +1412,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Ptilinopus cinctus</t>
+    <t xml:space="preserve">Aerodramus amelis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxonomically problematic (IRMING only)</t>
   </si>
   <si>
     <t xml:space="preserve">Ptilinopus cinctus, Ptilinopus alligator; are mapped to same taxon Ptilinopus cinctus, ott3596574</t>
   </si>
   <si>
-    <t xml:space="preserve">Pycnonotus snouckaerti </t>
+    <t xml:space="preserve">Aulacorhynchus whitelianus</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Pycnonotus snouckaerti", 
@@ -1435,7 +1429,7 @@
 "parent": 92678, </t>
   </si>
   <si>
-    <t xml:space="preserve">Rhipidura sulaensis</t>
+    <t xml:space="preserve">Batis occulta</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Rhipidura sulaensis", 
@@ -1443,7 +1437,7 @@
 "parent": 21006, </t>
   </si>
   <si>
-    <t xml:space="preserve">Rostratula benghalensis</t>
+    <t xml:space="preserve">Batrachostomus affinis </t>
   </si>
   <si>
     <r>
@@ -1482,13 +1476,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Saroglossa spilopterus </t>
+    <t xml:space="preserve">Batrachostomus mixtus </t>
   </si>
   <si>
     <t xml:space="preserve">Mapped to https://tree.opentreeoflife.org/taxonomy/browse?id=7663542</t>
   </si>
   <si>
-    <t xml:space="preserve">Schiffornis olivacea</t>
+    <t xml:space="preserve">Emberiza rustica </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Schiffornis olivacea", 
@@ -1496,7 +1490,7 @@
 "parent": 857137, </t>
   </si>
   <si>
-    <t xml:space="preserve">Setopagis heterura</t>
+    <t xml:space="preserve">Erythropitta dohertyi </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Setopagis heterura", 
@@ -1504,25 +1498,25 @@
 "parent": 3601781, </t>
   </si>
   <si>
-    <t xml:space="preserve">Sicalis olivascens </t>
+    <t xml:space="preserve">Eudynamys melanorhynchus</t>
   </si>
   <si>
     <t xml:space="preserve">Sicalis olivascens, Embernagra platensis olivascens; are mapped to same taxon Sicalis olivascens, ott922660</t>
   </si>
   <si>
-    <t xml:space="preserve">Spatula cyanoptera </t>
+    <t xml:space="preserve">Gecinulus viridis</t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/opentree/argus/ottol@82411/Anas-cyanoptera</t>
   </si>
   <si>
-    <t xml:space="preserve">Sphecotheres viridis </t>
+    <t xml:space="preserve">Glaucidium castaneum </t>
   </si>
   <si>
     <t xml:space="preserve">Sphecotheres viridis, Sphecotheres vieilloti; are mapped to same taxon Sphecotheres vieilloti, ott319134</t>
   </si>
   <si>
-    <t xml:space="preserve">Systellura decussata </t>
+    <t xml:space="preserve">Ianthocincla pectoralis</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Systellura decussata", 
@@ -1530,13 +1524,13 @@
 "parent": 4130547, </t>
   </si>
   <si>
-    <t xml:space="preserve">Theristicus branickii</t>
+    <t xml:space="preserve">Megascops roraimae </t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=3596720</t>
   </si>
   <si>
-    <t xml:space="preserve">Treron axillaris </t>
+    <t xml:space="preserve">Monarcha godeffroyi </t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Treron axillaris", 
@@ -1544,7 +1538,7 @@
 "parent": 873964, </t>
   </si>
   <si>
-    <t xml:space="preserve">Treron griveaudi</t>
+    <t xml:space="preserve">Myadestes woahensis</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Treron griveaudi", 
@@ -1552,7 +1546,7 @@
 "parent": 873964, </t>
   </si>
   <si>
-    <t xml:space="preserve">Tyto deroepstorffi</t>
+    <t xml:space="preserve">Myzomela dammermani</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Tyto deroepstorffi", 
@@ -1560,7 +1554,7 @@
 "parent": 1065605, </t>
   </si>
   <si>
-    <t xml:space="preserve">Urochroa leucura</t>
+    <t xml:space="preserve">Ortalis superciliaris</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Urochroa leucura", 
@@ -1569,10 +1563,40 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Theristicus branickii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5560059</t>
+  </si>
+  <si>
     <t xml:space="preserve">Xolmis salinarum </t>
   </si>
   <si>
-    <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5560059</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Should be added as match to Dendrocopos nanus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5560017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, but that taxon is hidden</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Yungipicus nanus</t>
@@ -1584,36 +1608,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Should be added as match to Dendrocopos nanus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5560017</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, but that taxon is hidden</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Zimmerius improbus</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Zimmerius improbus </t>
     </r>
     <r>
@@ -1644,7 +1638,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Zimmerius vilissimus </t>
+    <t xml:space="preserve">Automolus exsertus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxonomically problematic (major rank conflict)</t>
   </si>
   <si>
     <r>
@@ -1683,7 +1680,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Zosterops eurycricotus</t>
+    <t xml:space="preserve">Saroglossa spilopterus </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Zosterops eurycricotus", 
@@ -1895,8 +1892,8 @@
   </sheetPr>
   <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C128" activeCellId="0" sqref="C128"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="35.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1933,1379 +1930,1379 @@
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>4</v>
+        <v>218</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>37</v>
+        <v>218</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>4</v>
+        <v>218</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>7</v>
+        <v>218</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>4</v>
+        <v>218</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C127" s="0" t="s">
         <v>258</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3353,187 +3350,187 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/taxonomy_info/missingSynthTaxaExplanations.xlsx
+++ b/taxonomy_info/missingSynthTaxaExplanations.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$128</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$128</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -35,44 +35,34 @@
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">Amazilia saucerottei </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clements taxa mapped to parent and child</t>
+    <t xml:space="preserve">Actinodura nipalensis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double map to OTT</t>
   </si>
   <si>
     <t xml:space="preserve">Actinodura nipalensis, Actinodura waldeni; are mapped to same taxon Actinodura waldeni, ott695502</t>
   </si>
   <si>
-    <t xml:space="preserve">Asthenes vilcabambae</t>
+    <t xml:space="preserve">Aegotheles albertisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-monphyletic</t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/opentree/argus/ottol@540030/Aegotheles-albertisi</t>
   </si>
   <si>
-    <t xml:space="preserve">Bambusicola thoracicus</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Will appear in next taxonomy view, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5560046</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Chasiempis sandwichensis </t>
+    <t xml:space="preserve">Aerodramus amelis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxonomically problematic (IRMING only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will appear in next taxonomy view, https://tree.opentreeoflife.org/taxonomy/browse?id=5560046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alectroenas payandeei</t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Alectroenas payandeei",
@@ -81,7 +71,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Cinclosoma castaneothorax</t>
+    <t xml:space="preserve">Alopecoenas ferrugineus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New amendment</t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Alopecoenas ferrugineus", 
@@ -90,7 +83,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Dicrurus adsimilis</t>
+    <t xml:space="preserve">Alopecoenas norfolkensis</t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Alopecoenas norfolkensis", 
@@ -99,7 +92,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Dicrurus ludwigii</t>
+    <t xml:space="preserve">Alopochen mauritiana </t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Alopochen mauritiana", 
@@ -108,65 +101,48 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Gallinula nesiotis</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Amazilia saucerottei </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=690094</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> and Amazilia saucerottei hoffmanni https://tree.opentreeoflife.org/taxonomy/browse?id=5859725</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Geospiza difficilis</t>
+    <t xml:space="preserve">Amazilia saucerottei </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clements taxa mapped to parent and child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazilia saucerottei https://tree.opentreeoflife.org/taxonomy/browse?id=690094 and Amazilia saucerottei hoffmanni https://tree.opentreeoflife.org/taxonomy/browse?id=5859725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazona auropalliata</t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/opentree/argus/ottol@1118/Amazona-auropalliata</t>
   </si>
   <si>
-    <t xml:space="preserve">Haematopus unicolor </t>
+    <t xml:space="preserve">Amazona ochrocephala</t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/opentree/argus/ottol@165617/Amazona-ochrocephala</t>
   </si>
   <si>
-    <t xml:space="preserve">Hylopezus macularius</t>
+    <t xml:space="preserve">Amazona oratrix </t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/opentree/argus/ottol@1119/Amazona-oratrix</t>
   </si>
   <si>
-    <t xml:space="preserve">Liocichla phoenicea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merops nubicus</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">Aphanapteryx bonasia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extinct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asthenes vilcabambae</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Asthenes vilcabambae </t>
     </r>
@@ -176,6 +152,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=835367</t>
     </r>
@@ -184,6 +161,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> and Asthenes vilcabambae ayacuchensis </t>
     </r>
@@ -193,31 +171,36 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5925688</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Motacilla capensis </t>
+    <t xml:space="preserve">Aulacorhynchus whitelianus</t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=7658001 and genus is non mono)</t>
   </si>
   <si>
-    <t xml:space="preserve">Otus senegalensis </t>
+    <t xml:space="preserve">Automolus exsertus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxonomically problematic (major rank conflict)</t>
   </si>
   <si>
     <t xml:space="preserve">Species appears directly in Aves</t>
   </si>
   <si>
-    <t xml:space="preserve">Phaethornis longirostris </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">Bambusicola thoracicus</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Bambusicola thoracicus </t>
     </r>
@@ -227,6 +210,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=521334</t>
     </r>
@@ -235,6 +219,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Bambusicola thoracicus sonorivox </t>
     </r>
@@ -244,30 +229,31 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5861117</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Pterodroma macroptera</t>
+    <t xml:space="preserve">Batis occulta</t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=3597941</t>
   </si>
   <si>
-    <t xml:space="preserve">Rostratula benghalensis</t>
+    <t xml:space="preserve">Batrachostomus affinis </t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5560141</t>
   </si>
   <si>
-    <t xml:space="preserve">Zimmerius improbus</t>
+    <t xml:space="preserve">Batrachostomus mixtus </t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5560140</t>
   </si>
   <si>
-    <t xml:space="preserve">Zimmerius vilissimus </t>
+    <t xml:space="preserve">Bermuteo avivorus</t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Bermuteo avivorus", 
@@ -276,16 +262,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Actinodura nipalensis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double map to OTT</t>
+    <t xml:space="preserve">Bucco noanamae</t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=3600719</t>
   </si>
   <si>
-    <t xml:space="preserve">Ducula bicolor </t>
+    <t xml:space="preserve">Calliope tschebaiewi</t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Calliope tschebaiewi", 
@@ -294,7 +277,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Ducula subflavescens </t>
+    <t xml:space="preserve">Campylopterus calcirupicola</t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Campylopterus calcirupicola", 
@@ -302,7 +285,7 @@
 "parent": 294127, </t>
   </si>
   <si>
-    <t xml:space="preserve">Ficedula erithacus </t>
+    <t xml:space="preserve">Celeus ochraceus </t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Celeus ochraceus", 
@@ -310,7 +293,7 @@
 "parent": 724182, </t>
   </si>
   <si>
-    <t xml:space="preserve">Hemignathus wilsoni</t>
+    <t xml:space="preserve">Cercomacroides fuscicauda </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Cercomacroides fuscicauda", 
@@ -318,14 +301,15 @@
 "parent": 743734, </t>
   </si>
   <si>
-    <t xml:space="preserve">Heteromyias albispecularis </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">Chasiempis sandwichensis </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Chasiempis sandwichensis </t>
     </r>
@@ -335,6 +319,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=893771</t>
     </r>
@@ -343,6 +328,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Chasiempis sandwichensis ibidis </t>
     </r>
@@ -352,19 +338,21 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=319311</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Microcarbo africanus</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">Cinclosoma castaneothorax</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cinclosoma castaneothorax </t>
     </r>
@@ -374,6 +362,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=294608</t>
     </r>
@@ -382,6 +371,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Cinclosoma castaneothorax marginatum </t>
     </r>
@@ -391,12 +381,13 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=294604</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Mionectes olivaceus</t>
+    <t xml:space="preserve">Cinnyris gertrudis </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Cinnyris gertrudis", 
@@ -404,13 +395,13 @@
 "parent": 520444, </t>
   </si>
   <si>
-    <t xml:space="preserve">Ornithion brunneicapillus </t>
+    <t xml:space="preserve">Clibanornis rubiginosus </t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/opentree/argus/ottol@713365</t>
   </si>
   <si>
-    <t xml:space="preserve">Ploceus capensis</t>
+    <t xml:space="preserve">Colaptes oceanicus </t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Colaptes oceanicus", 
@@ -418,7 +409,7 @@
 "parent": 1020136, </t>
   </si>
   <si>
-    <t xml:space="preserve">Poecilotriccus calopterus</t>
+    <t xml:space="preserve">Columba thiriouxi</t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Columba thiriouxi", 
@@ -426,7 +417,7 @@
 "parent": 938415, </t>
   </si>
   <si>
-    <t xml:space="preserve">Poospiza whitii</t>
+    <t xml:space="preserve">Cyornis pelingensis </t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Cyornis pelingensis", 
@@ -434,7 +425,7 @@
 "parent": 288691, </t>
   </si>
   <si>
-    <t xml:space="preserve">Pseudastur albicollis</t>
+    <t xml:space="preserve">Cyornis sumatrensis</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Cyornis sumatrensis", 
@@ -442,14 +433,15 @@
 "parent": 288691, </t>
   </si>
   <si>
-    <t xml:space="preserve">Ptilinopus cinctus</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">Dicrurus adsimilis</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Dicrurus adsimilis </t>
     </r>
@@ -459,6 +451,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=263357</t>
     </r>
@@ -467,6 +460,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Dicrurus adsimilis divaricatus </t>
     </r>
@@ -476,12 +470,13 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=7068321</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Sicalis olivascens </t>
+    <t xml:space="preserve">Dicrurus atactus</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Dicrurus atactus", 
@@ -489,14 +484,15 @@
 "parent": 72474, </t>
   </si>
   <si>
-    <t xml:space="preserve">Sphecotheres viridis </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">Dicrurus ludwigii</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Dicrurus ludwigii </t>
     </r>
@@ -506,6 +502,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=207205</t>
     </r>
@@ -514,6 +511,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Dicrurus ludwigii sharpei </t>
     </r>
@@ -523,15 +521,13 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=7068322</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Aphanapteryx bonasia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extinct</t>
+    <t xml:space="preserve">Dicrurus occidentalis </t>
   </si>
   <si>
     <t xml:space="preserve">“original_label": "Dicrurus occidentalis", 
@@ -539,7 +535,7 @@
 "parent": 72474, </t>
   </si>
   <si>
-    <t xml:space="preserve">Erythromachus leguati </t>
+    <t xml:space="preserve">Dinopium psarodes</t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Dinopium psarodes", 
@@ -548,19 +544,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Bucco noanamae</t>
+    <t xml:space="preserve">Ducula bicolor </t>
   </si>
   <si>
     <t xml:space="preserve">Ducula bicolor, Ducula subflavescens, Ducula spilorrhoa; are mapped to same taxon Ducula bicolor, ott449659</t>
   </si>
   <si>
-    <t xml:space="preserve">Alectroenas payandeei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alopecoenas ferrugineus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">New amendment</t>
+    <t xml:space="preserve">Ducula subflavescens </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eclectus infectus</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Eclectus infectus", 
@@ -568,7 +561,7 @@
 "parent": 375779, </t>
   </si>
   <si>
-    <t xml:space="preserve">Alopecoenas norfolkensis</t>
+    <t xml:space="preserve">Emberiza calandra </t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Emberiza calandra", 
@@ -576,117 +569,54 @@
 "parent": 711854, </t>
   </si>
   <si>
-    <t xml:space="preserve">Alopochen mauritiana </t>
+    <t xml:space="preserve">Emberiza rustica </t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=7068450</t>
   </si>
   <si>
-    <t xml:space="preserve">Bermuteo avivorus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calliope tschebaiewi</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Mapped to Pitta  dohertyi  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5560091</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Campylopterus calcirupicola</t>
+    <t xml:space="preserve">Erythromachus leguati </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erythropitta dohertyi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapped to Pitta  dohertyi  https://tree.opentreeoflife.org/taxonomy/browse?id=5560091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eudynamys melanorhynchus</t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=3596323</t>
   </si>
   <si>
-    <t xml:space="preserve">Celeus ochraceus </t>
+    <t xml:space="preserve">Ficedula erithacus </t>
   </si>
   <si>
     <t xml:space="preserve">Ficedula erithacus, Ficedula hodgsoni; are mapped to same taxon Ficedula hodgsoni, ott7660859</t>
   </si>
   <si>
-    <t xml:space="preserve">Cercomacroides fuscicauda </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Gallinula nesiotis </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=385131</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Gallinula nesiotis comeri https://tree.opentreeoflife.org/taxonomy/browse?id=385129</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Cinnyris gertrudis </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Mapped to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5560018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> but may be synonym of https://tree.opentreeoflife.org/taxonomy/browse?id=7662889</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Colaptes oceanicus </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">Gallinula nesiotis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gallinula nesiotis https://tree.opentreeoflife.org/taxonomy/browse?id=385131 Gallinula nesiotis comeri https://tree.opentreeoflife.org/taxonomy/browse?id=385129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gecinulus viridis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapped to https://tree.opentreeoflife.org/taxonomy/browse?id=5560018 but may be synonym of https://tree.opentreeoflife.org/taxonomy/browse?id=7662889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geospiza difficilis</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Geospiza difficilis </t>
     </r>
@@ -696,6 +626,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=419376</t>
     </r>
@@ -704,6 +635,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Geospiza difficilis septentrionalis </t>
     </r>
@@ -713,25 +645,27 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5859950</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Columba thiriouxi</t>
+    <t xml:space="preserve">Glaucidium castaneum </t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5560040</t>
   </si>
   <si>
-    <t xml:space="preserve">Cyornis pelingensis </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">Haematopus unicolor </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Haematopus unicolor </t>
     </r>
@@ -741,6 +675,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=80079</t>
     </r>
@@ -749,6 +684,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Haematopus unicolor chathamensis </t>
     </r>
@@ -758,24 +694,25 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=80080</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Cyornis sumatrensis</t>
+    <t xml:space="preserve">Hemignathus wilsoni</t>
   </si>
   <si>
     <t xml:space="preserve">Hemignathus wilsoni, Chlorodrepanis virens wilsoni; are mapped to same taxon Hemignathus wilsoni, ott324561</t>
   </si>
   <si>
-    <t xml:space="preserve">Dicrurus atactus</t>
+    <t xml:space="preserve">Heteromyias albispecularis </t>
   </si>
   <si>
     <t xml:space="preserve">Heteromyias albispecularis, Heteromyias cinereifrons; are mapped to same taxon Poecilodryas albispecularis, ott664</t>
   </si>
   <si>
-    <t xml:space="preserve">Dicrurus occidentalis </t>
+    <t xml:space="preserve">Hierococcyx bocki </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Hierococcyx bocki", 
@@ -783,14 +720,15 @@
 "parent": 589929, </t>
   </si>
   <si>
-    <t xml:space="preserve">Dinopium psarodes</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">Hylopezus macularius</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Hylopezus macularius </t>
     </r>
@@ -800,6 +738,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=227756</t>
     </r>
@@ -808,6 +747,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Hylopezus macularius paraensis </t>
     </r>
@@ -817,18 +757,19 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=514444</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Eclectus infectus</t>
+    <t xml:space="preserve">Ianthocincla pectoralis</t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5560054</t>
   </si>
   <si>
-    <t xml:space="preserve">Emberiza calandra </t>
+    <t xml:space="preserve">Ianthocincla woodi </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Ianthocincla woodi", 
@@ -836,7 +777,7 @@
 "parent": 294063, </t>
   </si>
   <si>
-    <t xml:space="preserve">Hierococcyx bocki </t>
+    <t xml:space="preserve">Leistes bellicosus</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Leistes bellicosus", 
@@ -844,14 +785,15 @@
 "parent": 3597461, </t>
   </si>
   <si>
-    <t xml:space="preserve">Ianthocincla woodi </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">Liocichla phoenicea</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Liocichla phoenicea </t>
     </r>
@@ -861,6 +803,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=451636</t>
     </r>
@@ -869,6 +812,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Liocichla phoenicea ripponi </t>
     </r>
@@ -878,12 +822,13 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=3598502</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Leistes bellicosus</t>
+    <t xml:space="preserve">Lophopsittacus mauritianus </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Lophopsittacus mauritianus", 
@@ -891,7 +836,7 @@
 "parent": 4131208, </t>
   </si>
   <si>
-    <t xml:space="preserve">Lophopsittacus mauritianus </t>
+    <t xml:space="preserve">Mareca marecula </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Mareca marecula", 
@@ -899,7 +844,7 @@
 "parent": 3595961, </t>
   </si>
   <si>
-    <t xml:space="preserve">Mareca marecula </t>
+    <t xml:space="preserve">Megapomatorhinus erythrocnemis</t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Megapomatorhinus erythrocnemis", 
@@ -908,7 +853,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Megapomatorhinus erythrocnemis</t>
+    <t xml:space="preserve">Megascops gilesi </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Megascops gilesi", 
@@ -916,34 +861,10 @@
 "parent": 181710,</t>
   </si>
   <si>
-    <t xml:space="preserve">Megascops gilesi </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Should be added as match to Otus roraimae, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=3595744</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, but that taxon is hidden</t>
-    </r>
+    <t xml:space="preserve">Megascops roraimae </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be added as match to Otus roraimae, https://tree.opentreeoflife.org/taxonomy/browse?id=3595744, but that taxon is hidden</t>
   </si>
   <si>
     <t xml:space="preserve">Melanitta stejnegeri</t>
@@ -955,109 +876,117 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Merops nubicus</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Merops nubicus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=989087</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Merops nubicus nubicoides </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5560130</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Microcarbo africanus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microcarbo africanus, Microcarbo coronatus; are mapped to same taxon Phalacrocorax africanus, ott3600675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mionectes olivaceus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mionectes olivaceus, Oncostoma olivaceum; are mapped to same taxon Mionectes olivaceus, ott581548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monarcha godeffroyi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=4947755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motacilla capensis </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Motacilla capensis  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=483327</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Motacilla capensis wellsi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5861008</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Myadestes woahensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=3598824</t>
+  </si>
+  <si>
     <t xml:space="preserve">Myrmothera subcanescens</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Merops nubicus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=989087</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Merops nubicus nubicoides </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5560130</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Myzomela irianawidodoae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microcarbo africanus, Microcarbo coronatus; are mapped to same taxon Phalacrocorax africanus, ott3600675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necopsittacus rodricanus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mionectes olivaceus, Oncostoma olivaceum; are mapped to same taxon Mionectes olivaceus, ott581548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nesoenas cicur </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=4947755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nesoenas duboisi </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Motacilla capensis  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=483327</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Motacilla capensis wellsi </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5861008</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Nesoenas rodericanus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=3598824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyctanassa carcinocatactes </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Myrmothera subcanescens", 
@@ -1065,13 +994,13 @@
 "parent": 736629, </t>
   </si>
   <si>
-    <t xml:space="preserve">Nycticorax duboisi</t>
+    <t xml:space="preserve">Myzomela dammermani</t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5560085</t>
   </si>
   <si>
-    <t xml:space="preserve">Nycticorax mauritianus </t>
+    <t xml:space="preserve">Myzomela irianawidodoae</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Myzomela irianawidodoae", 
@@ -1079,7 +1008,7 @@
 "parent": 598352, </t>
   </si>
   <si>
-    <t xml:space="preserve">Nycticorax megacephalus</t>
+    <t xml:space="preserve">Necopsittacus rodricanus</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Necopsittacus rodricanus", 
@@ -1087,14 +1016,14 @@
 "parent": 4131195, </t>
   </si>
   <si>
-    <t xml:space="preserve">Ortalis araucuan</t>
+    <t xml:space="preserve">Nesoenas cicur </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Nesoenas cicur", 
 "ott_id": 6520314, </t>
   </si>
   <si>
-    <t xml:space="preserve">Ortalis columbiana </t>
+    <t xml:space="preserve">Nesoenas duboisi </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Nesoenas duboisi", 
@@ -1102,7 +1031,7 @@
 "parent": 981607, </t>
   </si>
   <si>
-    <t xml:space="preserve">Ortalis squamata </t>
+    <t xml:space="preserve">Nesoenas rodericanus</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Nesoenas rodericanus", 
@@ -1110,14 +1039,14 @@
 "parent": 981607, </t>
   </si>
   <si>
-    <t xml:space="preserve">Otus siaoensis </t>
+    <t xml:space="preserve">Nyctanassa carcinocatactes </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Nyctanassa carcinocatactes", 
 "ott_id": 6520302, </t>
   </si>
   <si>
-    <t xml:space="preserve">Otus sulaensis</t>
+    <t xml:space="preserve">Nycticorax duboisi</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Nycticorax duboisi", 
@@ -1125,7 +1054,7 @@
 "parent": 313128, </t>
   </si>
   <si>
-    <t xml:space="preserve">Passer zarudnyi </t>
+    <t xml:space="preserve">Nycticorax mauritianus </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Nycticorax mauritianus", 
@@ -1133,7 +1062,7 @@
 "parent": 313128, </t>
   </si>
   <si>
-    <t xml:space="preserve">Phylloscopus intensior</t>
+    <t xml:space="preserve">Nycticorax megacephalus</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Nycticorax megacephalus", 
@@ -1141,19 +1070,19 @@
 "parent": 313128, </t>
   </si>
   <si>
-    <t xml:space="preserve">Phylloscopus rotiensis </t>
+    <t xml:space="preserve">Oenanthe lugubris</t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/opentree/argus/ottol@410725/Oenanthe-lugubris</t>
   </si>
   <si>
-    <t xml:space="preserve">Pica asirensis </t>
+    <t xml:space="preserve">Ornithion brunneicapillus </t>
   </si>
   <si>
     <t xml:space="preserve">Ornithion brunneicapillus, Contopus latirostris brunneicapillus; are mapped to same taxon Ornithion brunneicapillus, ott187660</t>
   </si>
   <si>
-    <t xml:space="preserve">Pica bottanensis</t>
+    <t xml:space="preserve">Ortalis araucuan</t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Ortalis araucuan", 
@@ -1162,7 +1091,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Psilopogon auricularis</t>
+    <t xml:space="preserve">Ortalis columbiana </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Ortalis columbiana", 
@@ -1170,7 +1099,7 @@
 "parent": 109892, </t>
   </si>
   <si>
-    <t xml:space="preserve">Psittacara labati</t>
+    <t xml:space="preserve">Ortalis squamata </t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Ortalis squamata", 
@@ -1179,20 +1108,21 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Psittacara maugei</t>
+    <t xml:space="preserve">Ortalis superciliaris</t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=4947472</t>
   </si>
   <si>
-    <t xml:space="preserve">Pycnonotus snouckaerti </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">Otus senegalensis </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Otus senegalensis </t>
     </r>
@@ -1202,6 +1132,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=277291</t>
     </r>
@@ -1210,6 +1141,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Otus senegalensis pamelae </t>
     </r>
@@ -1219,19 +1151,20 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=4947544</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Rhipidura sulaensis</t>
+    <t xml:space="preserve">Otus siaoensis </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Otus siaoensis", 
 "ott_id": 6520300, </t>
   </si>
   <si>
-    <t xml:space="preserve">Schiffornis olivacea</t>
+    <t xml:space="preserve">Otus sulaensis</t>
   </si>
   <si>
     <t xml:space="preserve">"name_derivation": "No change to original label", 
@@ -1240,7 +1173,7 @@
 "parent": 1086553, </t>
   </si>
   <si>
-    <t xml:space="preserve">Setopagis heterura</t>
+    <t xml:space="preserve">Passer zarudnyi </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Passer zarudnyi", 
@@ -1248,14 +1181,15 @@
 "parent": 515158, </t>
   </si>
   <si>
-    <t xml:space="preserve">Systellura decussata </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">Phaethornis longirostris </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Phaethornis longirostris </t>
     </r>
@@ -1265,6 +1199,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=975184</t>
     </r>
@@ -1273,6 +1208,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Phaethornis longirostris mexicanus </t>
     </r>
@@ -1282,12 +1218,13 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=84790</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Treron axillaris </t>
+    <t xml:space="preserve">Phylloscopus intensior</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Phylloscopus intensior", 
@@ -1295,7 +1232,7 @@
 "parent": 96289, </t>
   </si>
   <si>
-    <t xml:space="preserve">Treron griveaudi</t>
+    <t xml:space="preserve">Phylloscopus rotiensis </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Phylloscopus rotiensis", 
@@ -1303,7 +1240,7 @@
 "parent": 96289, </t>
   </si>
   <si>
-    <t xml:space="preserve">Tyto deroepstorffi</t>
+    <t xml:space="preserve">Pica asirensis </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Pica asirensis", 
@@ -1311,7 +1248,7 @@
 "parent": 776480, </t>
   </si>
   <si>
-    <t xml:space="preserve">Urochroa leucura</t>
+    <t xml:space="preserve">Pica bottanensis</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Pica bottanensis", 
@@ -1319,37 +1256,34 @@
 "parent": 776480, </t>
   </si>
   <si>
-    <t xml:space="preserve">Zosterops eurycricotus</t>
+    <t xml:space="preserve">Ploceus capensis</t>
   </si>
   <si>
     <t xml:space="preserve">Ploceus capensis, Euplectes capensis phoenicomerus, Euplectes capensis xanthomelas; are mapped to same taxon Ploceus capensis, ott606515
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Aegotheles albertisi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-monphyletic</t>
+    <t xml:space="preserve">Poecilotriccus calopterus</t>
   </si>
   <si>
     <t xml:space="preserve">Poecilotriccus calopterus, Mecocerculus calopterus; are mapped to same taxon Mecocerculus calopterus, ott1008948
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Amazona auropalliata</t>
+    <t xml:space="preserve">Poospiza whitii</t>
   </si>
   <si>
     <t xml:space="preserve">Poospiza whitii, Poospiza nigrorufa; are mapped to same taxon Poospiza whitii, ott553173
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Amazona ochrocephala</t>
+    <t xml:space="preserve">Pseudastur albicollis</t>
   </si>
   <si>
     <t xml:space="preserve">Pseudastur albicollis, Pseudastur albicollis ghiesbreghti, Pseudastur albicollis costaricensis, Pseudastur albicollis williaminae, Pseudastur albicollis albicollis; are mapped to same taxon Leucopternis albicollis, ott624768</t>
   </si>
   <si>
-    <t xml:space="preserve">Amazona oratrix </t>
+    <t xml:space="preserve">Psilopogon auricularis</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Psilopogon auricularis", 
@@ -1357,7 +1291,7 @@
 "parent": 291642, </t>
   </si>
   <si>
-    <t xml:space="preserve">Clibanornis rubiginosus </t>
+    <t xml:space="preserve">Psittacara labati</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Psittacara labati", 
@@ -1365,7 +1299,7 @@
 "parent": 4131198, </t>
   </si>
   <si>
-    <t xml:space="preserve">Oenanthe lugubris</t>
+    <t xml:space="preserve">Psittacara maugei</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Psittacara maugei", 
@@ -1373,14 +1307,15 @@
 "parent": 4131198, </t>
   </si>
   <si>
-    <t xml:space="preserve">Spatula cyanoptera </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">Pterodroma macroptera</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Pterodroma macroptera </t>
     </r>
@@ -1390,6 +1325,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=271032</t>
     </r>
@@ -1398,6 +1334,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Pterodroma macroptera gouldi </t>
     </r>
@@ -1407,21 +1344,19 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=581903</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Aerodramus amelis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxonomically problematic (IRMING only)</t>
+    <t xml:space="preserve">Ptilinopus cinctus</t>
   </si>
   <si>
     <t xml:space="preserve">Ptilinopus cinctus, Ptilinopus alligator; are mapped to same taxon Ptilinopus cinctus, ott3596574</t>
   </si>
   <si>
-    <t xml:space="preserve">Aulacorhynchus whitelianus</t>
+    <t xml:space="preserve">Pycnonotus snouckaerti </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Pycnonotus snouckaerti", 
@@ -1429,7 +1364,7 @@
 "parent": 92678, </t>
   </si>
   <si>
-    <t xml:space="preserve">Batis occulta</t>
+    <t xml:space="preserve">Rhipidura sulaensis</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Rhipidura sulaensis", 
@@ -1437,14 +1372,15 @@
 "parent": 21006, </t>
   </si>
   <si>
-    <t xml:space="preserve">Batrachostomus affinis </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">Rostratula benghalensis</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Rostratula benghalensis </t>
     </r>
@@ -1454,6 +1390,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5276</t>
     </r>
@@ -1462,6 +1399,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Rostratula benghalensis australis </t>
     </r>
@@ -1471,18 +1409,19 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=311533</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Batrachostomus mixtus </t>
+    <t xml:space="preserve">Saroglossa spilopterus </t>
   </si>
   <si>
     <t xml:space="preserve">Mapped to https://tree.opentreeoflife.org/taxonomy/browse?id=7663542</t>
   </si>
   <si>
-    <t xml:space="preserve">Emberiza rustica </t>
+    <t xml:space="preserve">Schiffornis olivacea</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Schiffornis olivacea", 
@@ -1490,7 +1429,7 @@
 "parent": 857137, </t>
   </si>
   <si>
-    <t xml:space="preserve">Erythropitta dohertyi </t>
+    <t xml:space="preserve">Setopagis heterura</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Setopagis heterura", 
@@ -1498,25 +1437,25 @@
 "parent": 3601781, </t>
   </si>
   <si>
-    <t xml:space="preserve">Eudynamys melanorhynchus</t>
+    <t xml:space="preserve">Sicalis olivascens </t>
   </si>
   <si>
     <t xml:space="preserve">Sicalis olivascens, Embernagra platensis olivascens; are mapped to same taxon Sicalis olivascens, ott922660</t>
   </si>
   <si>
-    <t xml:space="preserve">Gecinulus viridis</t>
+    <t xml:space="preserve">Spatula cyanoptera </t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/opentree/argus/ottol@82411/Anas-cyanoptera</t>
   </si>
   <si>
-    <t xml:space="preserve">Glaucidium castaneum </t>
+    <t xml:space="preserve">Sphecotheres viridis </t>
   </si>
   <si>
     <t xml:space="preserve">Sphecotheres viridis, Sphecotheres vieilloti; are mapped to same taxon Sphecotheres vieilloti, ott319134</t>
   </si>
   <si>
-    <t xml:space="preserve">Ianthocincla pectoralis</t>
+    <t xml:space="preserve">Systellura decussata </t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Systellura decussata", 
@@ -1524,13 +1463,13 @@
 "parent": 4130547, </t>
   </si>
   <si>
-    <t xml:space="preserve">Megascops roraimae </t>
+    <t xml:space="preserve">Theristicus branickii</t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=3596720</t>
   </si>
   <si>
-    <t xml:space="preserve">Monarcha godeffroyi </t>
+    <t xml:space="preserve">Treron axillaris </t>
   </si>
   <si>
     <t xml:space="preserve">original_label": "Treron axillaris", 
@@ -1538,7 +1477,7 @@
 "parent": 873964, </t>
   </si>
   <si>
-    <t xml:space="preserve">Myadestes woahensis</t>
+    <t xml:space="preserve">Treron griveaudi</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Treron griveaudi", 
@@ -1546,7 +1485,7 @@
 "parent": 873964, </t>
   </si>
   <si>
-    <t xml:space="preserve">Myzomela dammermani</t>
+    <t xml:space="preserve">Tyto deroepstorffi</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Tyto deroepstorffi", 
@@ -1554,7 +1493,7 @@
 "parent": 1065605, </t>
   </si>
   <si>
-    <t xml:space="preserve">Ortalis superciliaris</t>
+    <t xml:space="preserve">Urochroa leucura</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Urochroa leucura", 
@@ -1563,50 +1502,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Theristicus branickii</t>
+    <t xml:space="preserve">Xolmis salinarum </t>
   </si>
   <si>
     <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5560059</t>
   </si>
   <si>
-    <t xml:space="preserve">Xolmis salinarum </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Should be added as match to Dendrocopos nanus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5560017</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, but that taxon is hidden</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Yungipicus nanus</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">Should be added as match to Dendrocopos nanus https://tree.opentreeoflife.org/taxonomy/browse?id=5560017, but that taxon is hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimmerius improbus</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Zimmerius improbus </t>
     </r>
@@ -1616,6 +1532,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5560067</t>
     </r>
@@ -1624,6 +1541,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Zimmerius improbus petersi </t>
     </r>
@@ -1633,22 +1551,21 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5560430</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Automolus exsertus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxonomically problematic (major rank conflict)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+    <t xml:space="preserve">Zimmerius vilissimus </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Zimmerius vilissimus </t>
     </r>
@@ -1658,6 +1575,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=937184</t>
     </r>
@@ -1666,6 +1584,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Zimmerius vilissimus parvus </t>
     </r>
@@ -1675,12 +1594,13 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://tree.opentreeoflife.org/taxonomy/browse?id=5560431</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Saroglossa spilopterus </t>
+    <t xml:space="preserve">Zosterops eurycricotus</t>
   </si>
   <si>
     <t xml:space="preserve">"original_label": "Zosterops eurycricotus", 
@@ -1778,6 +1698,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1799,11 +1720,13 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Courier New"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1857,16 +1780,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1881,10 +1804,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1892,15 +1811,15 @@
   </sheetPr>
   <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="35.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="35.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="173.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="173.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1910,7 +1829,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1930,1365 +1849,1365 @@
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>47</v>
+        <v>15</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>51</v>
+        <v>15</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>53</v>
+        <v>15</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>59</v>
+        <v>15</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>63</v>
+        <v>15</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>65</v>
+        <v>15</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>67</v>
+        <v>15</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>69</v>
+        <v>15</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>73</v>
+        <v>15</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>78</v>
+        <v>15</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>80</v>
+        <v>15</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>82</v>
+        <v>4</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>82</v>
+        <v>4</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>86</v>
+        <v>15</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>88</v>
+        <v>15</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>93</v>
+        <v>10</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>99</v>
+        <v>22</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>101</v>
+        <v>10</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>105</v>
+        <v>10</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>113</v>
+        <v>15</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>119</v>
+        <v>15</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>121</v>
+        <v>15</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>125</v>
+        <v>15</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>127</v>
+        <v>15</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>129</v>
+        <v>15</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>131</v>
+        <v>15</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>135</v>
+        <v>15</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>149</v>
+        <v>15</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>153</v>
+        <v>15</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>155</v>
+        <v>15</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>157</v>
+        <v>15</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>159</v>
+        <v>15</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>161</v>
+        <v>15</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>163</v>
+        <v>15</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>165</v>
+        <v>15</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>167</v>
+        <v>15</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>169</v>
+        <v>15</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>175</v>
+        <v>15</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>177</v>
+        <v>15</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>179</v>
+        <v>15</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>185</v>
+        <v>15</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>187</v>
+        <v>15</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>189</v>
+        <v>15</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>193</v>
+        <v>15</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>195</v>
+        <v>15</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>197</v>
+        <v>15</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>199</v>
+        <v>15</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>201</v>
+        <v>4</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>204</v>
+        <v>4</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>206</v>
+        <v>4</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>203</v>
+        <v>4</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>210</v>
+        <v>15</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>212</v>
+        <v>15</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>214</v>
+        <v>15</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>219</v>
+        <v>4</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>221</v>
+        <v>15</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>223</v>
+        <v>15</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>218</v>
+        <v>22</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>229</v>
+        <v>15</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>231</v>
+        <v>15</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>218</v>
+        <v>4</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>235</v>
+        <v>7</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>218</v>
+        <v>4</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>239</v>
+        <v>15</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>241</v>
+        <v>10</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>243</v>
+        <v>15</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>245</v>
+        <v>15</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>247</v>
+        <v>15</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>249</v>
+        <v>15</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>218</v>
+        <v>10</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>253</v>
+        <v>10</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>218</v>
+        <v>22</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>257</v>
+        <v>22</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>258</v>
@@ -3299,25 +3218,24 @@
         <v>259</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="C128" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>260</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B128"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="https://tree.opentreeoflife.org/taxonomy/browse?id=5560046"/>
-    <hyperlink ref="C9" r:id="rId2" display="https://tree.opentreeoflife.org/taxonomy/browse?id=690094"/>
-    <hyperlink ref="C46" r:id="rId3" display="https://tree.opentreeoflife.org/taxonomy/browse?id=5560091"/>
-    <hyperlink ref="C49" r:id="rId4" display="https://tree.opentreeoflife.org/taxonomy/browse?id=385131"/>
-    <hyperlink ref="C50" r:id="rId5" display="https://tree.opentreeoflife.org/taxonomy/browse?id=5560018"/>
+    <hyperlink ref="C4" r:id="rId1" display="Will appear in next taxonomy view, https://tree.opentreeoflife.org/taxonomy/browse?id=5560046"/>
+    <hyperlink ref="C9" r:id="rId2" display="Amazilia saucerottei https://tree.opentreeoflife.org/taxonomy/browse?id=690094 and Amazilia saucerottei hoffmanni https://tree.opentreeoflife.org/taxonomy/browse?id=5859725"/>
+    <hyperlink ref="C46" r:id="rId3" display="Mapped to Pitta  dohertyi  https://tree.opentreeoflife.org/taxonomy/browse?id=5560091"/>
+    <hyperlink ref="C49" r:id="rId4" display="Gallinula nesiotis https://tree.opentreeoflife.org/taxonomy/browse?id=385131 Gallinula nesiotis comeri https://tree.opentreeoflife.org/taxonomy/browse?id=385129"/>
+    <hyperlink ref="C50" r:id="rId5" display="Mapped to https://tree.opentreeoflife.org/taxonomy/browse?id=5560018 but may be synonym of https://tree.opentreeoflife.org/taxonomy/browse?id=7662889"/>
     <hyperlink ref="C52" r:id="rId6" display="https://tree.opentreeoflife.org/taxonomy/browse?id=5560040"/>
-    <hyperlink ref="C66" r:id="rId7" display="https://tree.opentreeoflife.org/taxonomy/browse?id=3595744"/>
+    <hyperlink ref="C66" r:id="rId7" display="Should be added as match to Otus roraimae, https://tree.opentreeoflife.org/taxonomy/browse?id=3595744, but that taxon is hidden"/>
     <hyperlink ref="C116" r:id="rId8" display="https://tree.opentreeoflife.org/opentree/argus/ottol@82411/Anas-cyanoptera"/>
     <hyperlink ref="C119" r:id="rId9" display="https://tree.opentreeoflife.org/taxonomy/browse?id=3596720"/>
-    <hyperlink ref="C125" r:id="rId10" display="https://tree.opentreeoflife.org/taxonomy/browse?id=5560017"/>
+    <hyperlink ref="C125" r:id="rId10" display="Should be added as match to Dendrocopos nanus https://tree.opentreeoflife.org/taxonomy/browse?id=5560017, but that taxon is hidden"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -3326,7 +3244,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -3338,10 +3255,10 @@
   <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3380,7 +3297,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3390,7 +3307,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3410,12 +3327,12 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3425,12 +3342,12 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3450,7 +3367,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3470,12 +3387,12 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3495,12 +3412,12 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
